--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3852,28 +3852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1498.643946995156</v>
+        <v>1623.532506104106</v>
       </c>
       <c r="AB2" t="n">
-        <v>2050.510763783516</v>
+        <v>2221.388800050754</v>
       </c>
       <c r="AC2" t="n">
-        <v>1854.812894397949</v>
+        <v>2009.382570712672</v>
       </c>
       <c r="AD2" t="n">
-        <v>1498643.946995156</v>
+        <v>1623532.506104106</v>
       </c>
       <c r="AE2" t="n">
-        <v>2050510.763783516</v>
+        <v>2221388.800050754</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.378784563115786e-07</v>
+        <v>1.416475102740695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1820987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>1854812.894397949</v>
+        <v>2009382.570712672</v>
       </c>
     </row>
     <row r="3">
@@ -3958,28 +3958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>896.208435828225</v>
+        <v>989.7682014688603</v>
       </c>
       <c r="AB3" t="n">
-        <v>1226.23191982592</v>
+        <v>1354.244518740988</v>
       </c>
       <c r="AC3" t="n">
-        <v>1109.202066425042</v>
+        <v>1224.997322566467</v>
       </c>
       <c r="AD3" t="n">
-        <v>896208.435828225</v>
+        <v>989768.2014688603</v>
       </c>
       <c r="AE3" t="n">
-        <v>1226231.91982592</v>
+        <v>1354244.518740988</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178932906310788e-06</v>
+        <v>1.993044572290531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1109202.066425042</v>
+        <v>1224997.322566467</v>
       </c>
     </row>
     <row r="4">
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>762.5326536203969</v>
+        <v>845.6779350564512</v>
       </c>
       <c r="AB4" t="n">
-        <v>1043.330817249873</v>
+        <v>1157.093859421618</v>
       </c>
       <c r="AC4" t="n">
-        <v>943.7567883755436</v>
+        <v>1046.662445469849</v>
       </c>
       <c r="AD4" t="n">
-        <v>762532.6536203969</v>
+        <v>845677.9350564512</v>
       </c>
       <c r="AE4" t="n">
-        <v>1043330.817249873</v>
+        <v>1157093.859421618</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.309126004793702e-06</v>
+        <v>2.21314246496285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.47839506172839</v>
       </c>
       <c r="AH4" t="n">
-        <v>943756.7883755435</v>
+        <v>1046662.445469849</v>
       </c>
     </row>
     <row r="5">
@@ -4170,28 +4170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>697.3047654666123</v>
+        <v>780.5352982486874</v>
       </c>
       <c r="AB5" t="n">
-        <v>954.0831430265345</v>
+        <v>1067.962829850928</v>
       </c>
       <c r="AC5" t="n">
-        <v>863.0267869201828</v>
+        <v>966.0379562652006</v>
       </c>
       <c r="AD5" t="n">
-        <v>697304.7654666123</v>
+        <v>780535.2982486874</v>
       </c>
       <c r="AE5" t="n">
-        <v>954083.1430265345</v>
+        <v>1067962.829850928</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.381653906772283e-06</v>
+        <v>2.335754481816611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.66435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>863026.7869201828</v>
+        <v>966037.9562652006</v>
       </c>
     </row>
     <row r="6">
@@ -4276,28 +4276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>664.1884726946787</v>
+        <v>737.0046107807239</v>
       </c>
       <c r="AB6" t="n">
-        <v>908.7719702682493</v>
+        <v>1008.402222818867</v>
       </c>
       <c r="AC6" t="n">
-        <v>822.0400488953178</v>
+        <v>912.1617299744426</v>
       </c>
       <c r="AD6" t="n">
-        <v>664188.4726946787</v>
+        <v>737004.6107807239</v>
       </c>
       <c r="AE6" t="n">
-        <v>908771.9702682493</v>
+        <v>1008402.222818867</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42618950480113e-06</v>
+        <v>2.411044119971563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.20524691358025</v>
       </c>
       <c r="AH6" t="n">
-        <v>822040.0488953178</v>
+        <v>912161.7299744425</v>
       </c>
     </row>
     <row r="7">
@@ -4382,28 +4382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>629.5571747779837</v>
+        <v>712.7023667054872</v>
       </c>
       <c r="AB7" t="n">
-        <v>861.3879006335915</v>
+        <v>975.1508203357873</v>
       </c>
       <c r="AC7" t="n">
-        <v>779.1782483626323</v>
+        <v>882.0837946757113</v>
       </c>
       <c r="AD7" t="n">
-        <v>629557.1747779837</v>
+        <v>712702.3667054871</v>
       </c>
       <c r="AE7" t="n">
-        <v>861387.9006335915</v>
+        <v>975150.8203357874</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.457070320415472e-06</v>
+        <v>2.463249670956365e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.90432098765432</v>
       </c>
       <c r="AH7" t="n">
-        <v>779178.2483626324</v>
+        <v>882083.7946757113</v>
       </c>
     </row>
     <row r="8">
@@ -4488,28 +4488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>610.054114447672</v>
+        <v>682.9555038797375</v>
       </c>
       <c r="AB8" t="n">
-        <v>834.7029530753622</v>
+        <v>934.4498502786294</v>
       </c>
       <c r="AC8" t="n">
-        <v>755.0400747468012</v>
+        <v>845.2672680766382</v>
       </c>
       <c r="AD8" t="n">
-        <v>610054.1144476719</v>
+        <v>682955.5038797376</v>
       </c>
       <c r="AE8" t="n">
-        <v>834702.9530753621</v>
+        <v>934449.8502786293</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.479285601035993e-06</v>
+        <v>2.500805705083186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.69598765432099</v>
       </c>
       <c r="AH8" t="n">
-        <v>755040.0747468012</v>
+        <v>845267.2680766382</v>
       </c>
     </row>
     <row r="9">
@@ -4594,28 +4594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>592.7616177683745</v>
+        <v>665.6630072004402</v>
       </c>
       <c r="AB9" t="n">
-        <v>811.0425962276361</v>
+        <v>910.7894934309036</v>
       </c>
       <c r="AC9" t="n">
-        <v>733.6378291491029</v>
+        <v>823.86502247894</v>
       </c>
       <c r="AD9" t="n">
-        <v>592761.6177683745</v>
+        <v>665663.0072004403</v>
       </c>
       <c r="AE9" t="n">
-        <v>811042.5962276361</v>
+        <v>910789.4934309035</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.497667038901673e-06</v>
+        <v>2.531880437812235e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.53009259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>733637.8291491029</v>
+        <v>823865.02247894</v>
       </c>
     </row>
     <row r="10">
@@ -4700,28 +4700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>578.6933206736124</v>
+        <v>651.4241179050862</v>
       </c>
       <c r="AB10" t="n">
-        <v>791.7937314931182</v>
+        <v>891.3072169215386</v>
       </c>
       <c r="AC10" t="n">
-        <v>716.2260490488959</v>
+        <v>806.2421070960818</v>
       </c>
       <c r="AD10" t="n">
-        <v>578693.3206736124</v>
+        <v>651424.1179050861</v>
       </c>
       <c r="AE10" t="n">
-        <v>791793.7314931182</v>
+        <v>891307.2169215386</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.508170717682061e-06</v>
+        <v>2.54963742794312e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.43364197530864</v>
       </c>
       <c r="AH10" t="n">
-        <v>716226.0490488959</v>
+        <v>806242.1070960818</v>
       </c>
     </row>
     <row r="11">
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>564.2093991191572</v>
+        <v>636.9401963506308</v>
       </c>
       <c r="AB11" t="n">
-        <v>771.9761910367909</v>
+        <v>871.4896764652112</v>
       </c>
       <c r="AC11" t="n">
-        <v>698.2998668396277</v>
+        <v>788.3159248868136</v>
       </c>
       <c r="AD11" t="n">
-        <v>564209.3991191572</v>
+        <v>636940.1963506308</v>
       </c>
       <c r="AE11" t="n">
-        <v>771976.1910367908</v>
+        <v>871489.6764652112</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.519987356309998e-06</v>
+        <v>2.569614041840365e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.32947530864197</v>
       </c>
       <c r="AH11" t="n">
-        <v>698299.8668396277</v>
+        <v>788315.9248868136</v>
       </c>
     </row>
     <row r="12">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>556.3496671571454</v>
+        <v>629.080464388619</v>
       </c>
       <c r="AB12" t="n">
-        <v>761.2221590194644</v>
+        <v>860.7356444478849</v>
       </c>
       <c r="AC12" t="n">
-        <v>688.5721845446562</v>
+        <v>778.5882425918422</v>
       </c>
       <c r="AD12" t="n">
-        <v>556349.6671571454</v>
+        <v>629080.4643886191</v>
       </c>
       <c r="AE12" t="n">
-        <v>761222.1590194644</v>
+        <v>860735.6444478849</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.524924085336781e-06</v>
+        <v>2.577959827201882e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>688572.1845446562</v>
+        <v>778588.2425918422</v>
       </c>
     </row>
     <row r="13">
@@ -5018,28 +5018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>553.5913557629567</v>
+        <v>626.3221529944304</v>
       </c>
       <c r="AB13" t="n">
-        <v>757.448115681825</v>
+        <v>856.9616011102453</v>
       </c>
       <c r="AC13" t="n">
-        <v>685.158330606258</v>
+        <v>775.1743886534439</v>
       </c>
       <c r="AD13" t="n">
-        <v>553591.3557629567</v>
+        <v>626322.1529944304</v>
       </c>
       <c r="AE13" t="n">
-        <v>757448.115681825</v>
+        <v>856961.6011102453</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.527970152183093e-06</v>
+        <v>2.583109354339839e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.26003086419753</v>
       </c>
       <c r="AH13" t="n">
-        <v>685158.330606258</v>
+        <v>775174.3886534439</v>
       </c>
     </row>
     <row r="14">
@@ -5124,28 +5124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>555.0967331485853</v>
+        <v>627.8275303800588</v>
       </c>
       <c r="AB14" t="n">
-        <v>759.5078394334048</v>
+        <v>859.0213248618253</v>
       </c>
       <c r="AC14" t="n">
-        <v>687.0214772138276</v>
+        <v>777.0375352610135</v>
       </c>
       <c r="AD14" t="n">
-        <v>555096.7331485853</v>
+        <v>627827.5303800588</v>
       </c>
       <c r="AE14" t="n">
-        <v>759507.8394334048</v>
+        <v>859021.3248618253</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.527655041819681e-06</v>
+        <v>2.582576644635911e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.26388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>687021.4772138275</v>
+        <v>777037.5352610135</v>
       </c>
     </row>
   </sheetData>
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1125.096289019063</v>
+        <v>1226.002056966216</v>
       </c>
       <c r="AB2" t="n">
-        <v>1539.406378381039</v>
+        <v>1677.470101734634</v>
       </c>
       <c r="AC2" t="n">
-        <v>1392.487594198774</v>
+        <v>1517.374709569154</v>
       </c>
       <c r="AD2" t="n">
-        <v>1125096.289019063</v>
+        <v>1226002.056966216</v>
       </c>
       <c r="AE2" t="n">
-        <v>1539406.378381039</v>
+        <v>1677470.101734634</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.931440591263474e-07</v>
+        <v>1.719917950730267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.1033950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>1392487.594198774</v>
+        <v>1517374.709569154</v>
       </c>
     </row>
     <row r="3">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>740.4368580030126</v>
+        <v>821.076149407873</v>
       </c>
       <c r="AB3" t="n">
-        <v>1013.098374888463</v>
+        <v>1123.432610943051</v>
       </c>
       <c r="AC3" t="n">
-        <v>916.4096878816071</v>
+        <v>1016.213779302218</v>
       </c>
       <c r="AD3" t="n">
-        <v>740436.8580030126</v>
+        <v>821076.149407873</v>
       </c>
       <c r="AE3" t="n">
-        <v>1013098.374888463</v>
+        <v>1123432.610943051</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306136560473551e-06</v>
+        <v>2.261955549972995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>916409.6878816071</v>
+        <v>1016213.779302218</v>
       </c>
     </row>
     <row r="4">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>638.3373314176928</v>
+        <v>718.9765333140023</v>
       </c>
       <c r="AB4" t="n">
-        <v>873.4012983012143</v>
+        <v>983.7354118862531</v>
       </c>
       <c r="AC4" t="n">
-        <v>790.0451042177669</v>
+        <v>889.8490848571506</v>
       </c>
       <c r="AD4" t="n">
-        <v>638337.3314176928</v>
+        <v>718976.5333140022</v>
       </c>
       <c r="AE4" t="n">
-        <v>873401.2983012144</v>
+        <v>983735.4118862532</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.424031670337018e-06</v>
+        <v>2.466125241060778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.71836419753086</v>
       </c>
       <c r="AH4" t="n">
-        <v>790045.1042177669</v>
+        <v>889849.0848571506</v>
       </c>
     </row>
     <row r="5">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>597.421929226068</v>
+        <v>667.9706527870684</v>
       </c>
       <c r="AB5" t="n">
-        <v>817.4190399624833</v>
+        <v>913.9469159286662</v>
       </c>
       <c r="AC5" t="n">
-        <v>739.4057140432913</v>
+        <v>826.7211050049863</v>
       </c>
       <c r="AD5" t="n">
-        <v>597421.929226068</v>
+        <v>667970.6527870684</v>
       </c>
       <c r="AE5" t="n">
-        <v>817419.0399624833</v>
+        <v>913946.9159286661</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.485098077473671e-06</v>
+        <v>2.571879495799335e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.11265432098765</v>
       </c>
       <c r="AH5" t="n">
-        <v>739405.7140432913</v>
+        <v>826721.1050049863</v>
       </c>
     </row>
     <row r="6">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>558.4987006944029</v>
+        <v>629.1326756014238</v>
       </c>
       <c r="AB6" t="n">
-        <v>764.1625615138083</v>
+        <v>860.8070821326403</v>
       </c>
       <c r="AC6" t="n">
-        <v>691.2319591518209</v>
+        <v>778.6528623642281</v>
       </c>
       <c r="AD6" t="n">
-        <v>558498.7006944029</v>
+        <v>629132.6756014238</v>
       </c>
       <c r="AE6" t="n">
-        <v>764162.5615138083</v>
+        <v>860807.0821326403</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524812973929982e-06</v>
+        <v>2.640657396345496e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.74614197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>691231.9591518209</v>
+        <v>778652.8623642281</v>
       </c>
     </row>
     <row r="7">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>537.2376941656079</v>
+        <v>607.8716690726288</v>
       </c>
       <c r="AB7" t="n">
-        <v>735.0723144117015</v>
+        <v>831.7168350305335</v>
       </c>
       <c r="AC7" t="n">
-        <v>664.9180444047208</v>
+        <v>752.338947617128</v>
       </c>
       <c r="AD7" t="n">
-        <v>537237.6941656079</v>
+        <v>607871.6690726288</v>
       </c>
       <c r="AE7" t="n">
-        <v>735072.3144117015</v>
+        <v>831716.8350305335</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.550782495826174e-06</v>
+        <v>2.685631180833957e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.51466049382716</v>
       </c>
       <c r="AH7" t="n">
-        <v>664918.0444047209</v>
+        <v>752338.947617128</v>
       </c>
     </row>
     <row r="8">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>519.3473897025141</v>
+        <v>589.8107724089427</v>
       </c>
       <c r="AB8" t="n">
-        <v>710.5940105807671</v>
+        <v>807.005119424752</v>
       </c>
       <c r="AC8" t="n">
-        <v>642.7759155358956</v>
+        <v>729.9856834656517</v>
       </c>
       <c r="AD8" t="n">
-        <v>519347.389702514</v>
+        <v>589810.7724089427</v>
       </c>
       <c r="AE8" t="n">
-        <v>710594.0105807671</v>
+        <v>807005.1194247521</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.569634847495585e-06</v>
+        <v>2.718279513924953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.35262345679012</v>
       </c>
       <c r="AH8" t="n">
-        <v>642775.9155358956</v>
+        <v>729985.6834656517</v>
       </c>
     </row>
     <row r="9">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>507.0140581784975</v>
+        <v>577.4774408849263</v>
       </c>
       <c r="AB9" t="n">
-        <v>693.7190022814223</v>
+        <v>790.1301111254072</v>
       </c>
       <c r="AC9" t="n">
-        <v>627.5114343444172</v>
+        <v>714.7212022741734</v>
       </c>
       <c r="AD9" t="n">
-        <v>507014.0581784975</v>
+        <v>577477.4408849262</v>
       </c>
       <c r="AE9" t="n">
-        <v>693719.0022814223</v>
+        <v>790130.1111254072</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.579033858558433e-06</v>
+        <v>2.734556636762827e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.27546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>627511.4343444172</v>
+        <v>714721.2022741734</v>
       </c>
     </row>
     <row r="10">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>506.9246804241679</v>
+        <v>577.3880631305966</v>
       </c>
       <c r="AB10" t="n">
-        <v>693.5967116948801</v>
+        <v>790.0078205388652</v>
       </c>
       <c r="AC10" t="n">
-        <v>627.4008149998189</v>
+        <v>714.610582929575</v>
       </c>
       <c r="AD10" t="n">
-        <v>506924.6804241679</v>
+        <v>577388.0631305967</v>
       </c>
       <c r="AE10" t="n">
-        <v>693596.7116948802</v>
+        <v>790007.8205388652</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.581967653919091e-06</v>
+        <v>2.739637357186209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.24845679012346</v>
       </c>
       <c r="AH10" t="n">
-        <v>627400.8149998189</v>
+        <v>714610.582929575</v>
       </c>
     </row>
     <row r="11">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>508.9942074156845</v>
+        <v>579.4575901221132</v>
       </c>
       <c r="AB11" t="n">
-        <v>696.4283298257603</v>
+        <v>792.8394386697454</v>
       </c>
       <c r="AC11" t="n">
-        <v>629.9621874704889</v>
+        <v>717.1719554002449</v>
       </c>
       <c r="AD11" t="n">
-        <v>508994.2074156845</v>
+        <v>579457.5901221131</v>
       </c>
       <c r="AE11" t="n">
-        <v>696428.3298257603</v>
+        <v>792839.4386697453</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.581478688025648e-06</v>
+        <v>2.738790570448979e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.25231481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>629962.1874704888</v>
+        <v>717171.9554002449</v>
       </c>
     </row>
   </sheetData>
@@ -6672,28 +6672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.4280478866019</v>
+        <v>596.3509727883247</v>
       </c>
       <c r="AB2" t="n">
-        <v>716.1773471341695</v>
+        <v>815.9537101170996</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.8263862849034</v>
+        <v>738.0802332217477</v>
       </c>
       <c r="AD2" t="n">
-        <v>523428.0478866019</v>
+        <v>596350.9727883247</v>
       </c>
       <c r="AE2" t="n">
-        <v>716177.3471341695</v>
+        <v>815953.7101170996</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.480798311210179e-06</v>
+        <v>2.801989057382952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.79475308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>647826.3862849034</v>
+        <v>738080.2332217477</v>
       </c>
     </row>
     <row r="3">
@@ -6778,28 +6778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>403.2776407474178</v>
+        <v>467.0852000364254</v>
       </c>
       <c r="AB3" t="n">
-        <v>551.7822594244772</v>
+        <v>639.0865770345411</v>
       </c>
       <c r="AC3" t="n">
-        <v>499.1209350162693</v>
+        <v>578.0930510860081</v>
       </c>
       <c r="AD3" t="n">
-        <v>403277.6407474178</v>
+        <v>467085.2000364254</v>
       </c>
       <c r="AE3" t="n">
-        <v>551782.2594244771</v>
+        <v>639086.5770345411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.697589220932917e-06</v>
+        <v>3.212204109753435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.77700617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>499120.9350162693</v>
+        <v>578093.0510860081</v>
       </c>
     </row>
     <row r="4">
@@ -6884,28 +6884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.5856432624197</v>
+        <v>453.3932025514272</v>
       </c>
       <c r="AB4" t="n">
-        <v>533.0482644172051</v>
+        <v>620.352582027269</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.1748861991642</v>
+        <v>561.147002268903</v>
       </c>
       <c r="AD4" t="n">
-        <v>389585.6432624197</v>
+        <v>453393.2025514272</v>
       </c>
       <c r="AE4" t="n">
-        <v>533048.2644172051</v>
+        <v>620352.5820272691</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72638555262148e-06</v>
+        <v>3.266692965982736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.54938271604938</v>
       </c>
       <c r="AH4" t="n">
-        <v>482174.8861991642</v>
+        <v>561147.002268903</v>
       </c>
     </row>
   </sheetData>
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.3192637295865</v>
+        <v>789.6183485397466</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.6806890077587</v>
+        <v>1080.390659975053</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.7083565831994</v>
+        <v>977.279691724848</v>
       </c>
       <c r="AD2" t="n">
-        <v>704319.2637295865</v>
+        <v>789618.3485397466</v>
       </c>
       <c r="AE2" t="n">
-        <v>963680.6890077587</v>
+        <v>1080390.659975053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283993800242107e-06</v>
+        <v>2.339157852969936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.4266975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>871708.3565831993</v>
+        <v>977279.691724848</v>
       </c>
     </row>
     <row r="3">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>520.6666105666499</v>
+        <v>596.5543159438578</v>
       </c>
       <c r="AB3" t="n">
-        <v>712.3990267669947</v>
+        <v>816.231933193367</v>
       </c>
       <c r="AC3" t="n">
-        <v>644.4086635106657</v>
+        <v>738.3319030781046</v>
       </c>
       <c r="AD3" t="n">
-        <v>520666.6105666498</v>
+        <v>596554.3159438578</v>
       </c>
       <c r="AE3" t="n">
-        <v>712399.0267669946</v>
+        <v>816231.933193367</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.540630168916001e-06</v>
+        <v>2.806693581746844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.52546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>644408.6635106658</v>
+        <v>738331.9030781046</v>
       </c>
     </row>
     <row r="4">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.9884240109795</v>
+        <v>524.4648394637867</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.6399667550915</v>
+        <v>717.5959311100902</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.8343278227019</v>
+        <v>649.1095825971572</v>
       </c>
       <c r="AD4" t="n">
-        <v>457988.4240109795</v>
+        <v>524464.8394637867</v>
       </c>
       <c r="AE4" t="n">
-        <v>626639.9667550914</v>
+        <v>717595.9311100902</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.635107150739678e-06</v>
+        <v>2.978810124611834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.68441358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>566834.3278227019</v>
+        <v>649109.5825971572</v>
       </c>
     </row>
     <row r="5">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>431.7469386024263</v>
+        <v>498.0527618546412</v>
       </c>
       <c r="AB5" t="n">
-        <v>590.7352087264785</v>
+        <v>681.4577613066303</v>
       </c>
       <c r="AC5" t="n">
-        <v>534.3562695076953</v>
+        <v>616.4203889994998</v>
       </c>
       <c r="AD5" t="n">
-        <v>431746.9386024263</v>
+        <v>498052.7618546413</v>
       </c>
       <c r="AE5" t="n">
-        <v>590735.2087264785</v>
+        <v>681457.7613066303</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.673849092948528e-06</v>
+        <v>3.04938952954358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.36805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>534356.2695076953</v>
+        <v>616420.3889994997</v>
       </c>
     </row>
     <row r="6">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.5371333483862</v>
+        <v>497.8429566006013</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.4481439219466</v>
+        <v>681.1706965020984</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.0966017652099</v>
+        <v>616.1607212570143</v>
       </c>
       <c r="AD6" t="n">
-        <v>431537.1333483863</v>
+        <v>497842.9566006013</v>
       </c>
       <c r="AE6" t="n">
-        <v>590448.1439219465</v>
+        <v>681170.6965020983</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.675473006693809e-06</v>
+        <v>3.052347947714372e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.35648148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>534096.6017652099</v>
+        <v>616160.7212570143</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.2291471105464</v>
+        <v>478.5650059925133</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.5571288755533</v>
+        <v>654.7937539969556</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.2492204355237</v>
+        <v>592.3011571242911</v>
       </c>
       <c r="AD2" t="n">
-        <v>408229.1471105464</v>
+        <v>478565.0059925133</v>
       </c>
       <c r="AE2" t="n">
-        <v>558557.1288755533</v>
+        <v>654793.7539969556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.647426258955153e-06</v>
+        <v>3.228424666041013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>505249.2204355237</v>
+        <v>592301.1571242911</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.2871198818543</v>
+        <v>418.9056696513255</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.8559998176292</v>
+        <v>573.1652180307791</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.2002693087389</v>
+        <v>518.4631340643567</v>
       </c>
       <c r="AD3" t="n">
-        <v>357287.1198818543</v>
+        <v>418905.6696513255</v>
       </c>
       <c r="AE3" t="n">
-        <v>488855.9998176292</v>
+        <v>573165.2180307792</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.756100354997828e-06</v>
+        <v>3.441390879440088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>442200.2693087389</v>
+        <v>518463.1340643567</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1203.199792103507</v>
+        <v>1325.137588274556</v>
       </c>
       <c r="AB2" t="n">
-        <v>1646.271036984547</v>
+        <v>1813.111709221676</v>
       </c>
       <c r="AC2" t="n">
-        <v>1489.153239770653</v>
+        <v>1640.070872411825</v>
       </c>
       <c r="AD2" t="n">
-        <v>1203199.792103507</v>
+        <v>1325137.588274556</v>
       </c>
       <c r="AE2" t="n">
-        <v>1646271.036984547</v>
+        <v>1813111.709221676</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.514332405592955e-07</v>
+        <v>1.636923010372638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.83256172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>1489153.239770653</v>
+        <v>1640070.872411825</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>776.5857244180361</v>
+        <v>857.9061249921443</v>
       </c>
       <c r="AB3" t="n">
-        <v>1062.558848692931</v>
+        <v>1173.825008361299</v>
       </c>
       <c r="AC3" t="n">
-        <v>961.1497234843874</v>
+        <v>1061.796797037042</v>
       </c>
       <c r="AD3" t="n">
-        <v>776585.7244180361</v>
+        <v>857906.1249921443</v>
       </c>
       <c r="AE3" t="n">
-        <v>1062558.848692931</v>
+        <v>1173825.008361299</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.271413306692729e-06</v>
+        <v>2.187442700862401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.33873456790123</v>
       </c>
       <c r="AH3" t="n">
-        <v>961149.7234843874</v>
+        <v>1061796.797037042</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.7569351584602</v>
+        <v>747.0772462240174</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.9180098068754</v>
+        <v>1022.184047005695</v>
       </c>
       <c r="AC4" t="n">
-        <v>823.981273432363</v>
+        <v>924.6282362037908</v>
       </c>
       <c r="AD4" t="n">
-        <v>665756.9351584603</v>
+        <v>747077.2462240173</v>
       </c>
       <c r="AE4" t="n">
-        <v>910918.0098068754</v>
+        <v>1022184.047005695</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.394548829365985e-06</v>
+        <v>2.399295053571484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>823981.2734323629</v>
+        <v>924628.2362037909</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>621.9067664198294</v>
+        <v>693.0514605039215</v>
       </c>
       <c r="AB5" t="n">
-        <v>850.9202744057686</v>
+        <v>948.2635835340091</v>
       </c>
       <c r="AC5" t="n">
-        <v>769.7096376905872</v>
+        <v>857.762638017821</v>
       </c>
       <c r="AD5" t="n">
-        <v>621906.7664198295</v>
+        <v>693051.4605039215</v>
       </c>
       <c r="AE5" t="n">
-        <v>850920.2744057686</v>
+        <v>948263.5835340091</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.458674062205446e-06</v>
+        <v>2.509621311584829e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.23996913580247</v>
       </c>
       <c r="AH5" t="n">
-        <v>769709.6376905872</v>
+        <v>857762.638017821</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>582.521223194667</v>
+        <v>653.7511686247794</v>
       </c>
       <c r="AB6" t="n">
-        <v>797.0312365975653</v>
+        <v>894.4911903784551</v>
       </c>
       <c r="AC6" t="n">
-        <v>720.9636940170593</v>
+        <v>809.1222065950052</v>
       </c>
       <c r="AD6" t="n">
-        <v>582521.2231946669</v>
+        <v>653751.1686247794</v>
       </c>
       <c r="AE6" t="n">
-        <v>797031.2365975654</v>
+        <v>894491.1903784551</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.499862813777392e-06</v>
+        <v>2.58048578461607e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.85030864197531</v>
       </c>
       <c r="AH6" t="n">
-        <v>720963.6940170593</v>
+        <v>809122.2065950052</v>
       </c>
     </row>
     <row r="7">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>561.410754641199</v>
+        <v>632.6407000713116</v>
       </c>
       <c r="AB7" t="n">
-        <v>768.1469621945678</v>
+        <v>865.6069159754577</v>
       </c>
       <c r="AC7" t="n">
-        <v>694.8360942237501</v>
+        <v>782.9946068016961</v>
       </c>
       <c r="AD7" t="n">
-        <v>561410.754641199</v>
+        <v>632640.7000713116</v>
       </c>
       <c r="AE7" t="n">
-        <v>768146.9621945678</v>
+        <v>865606.9159754576</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526945090954763e-06</v>
+        <v>2.627080333550338e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.6033950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>694836.0942237502</v>
+        <v>782994.6068016961</v>
       </c>
     </row>
     <row r="8">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>539.0611112221384</v>
+        <v>610.1204644516588</v>
       </c>
       <c r="AB8" t="n">
-        <v>737.5671940719297</v>
+        <v>834.7937360779727</v>
       </c>
       <c r="AC8" t="n">
-        <v>667.1748162517624</v>
+        <v>755.1221935470573</v>
       </c>
       <c r="AD8" t="n">
-        <v>539061.1112221384</v>
+        <v>610120.4644516588</v>
       </c>
       <c r="AE8" t="n">
-        <v>737567.1940719298</v>
+        <v>834793.7360779727</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.548697059105177e-06</v>
+        <v>2.664504185974679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>667174.8162517624</v>
+        <v>755122.1935470573</v>
       </c>
     </row>
     <row r="9">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>525.0683959981048</v>
+        <v>596.1277492276251</v>
       </c>
       <c r="AB9" t="n">
-        <v>718.4217437873792</v>
+        <v>815.6482857934221</v>
       </c>
       <c r="AC9" t="n">
-        <v>649.8565808715613</v>
+        <v>737.8039581668561</v>
       </c>
       <c r="AD9" t="n">
-        <v>525068.3959981048</v>
+        <v>596127.7492276252</v>
       </c>
       <c r="AE9" t="n">
-        <v>718421.7437873792</v>
+        <v>815648.2857934221</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.560703714792162e-06</v>
+        <v>2.685161411446532e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.31018518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>649856.5808715613</v>
+        <v>737803.9581668561</v>
       </c>
     </row>
     <row r="10">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>516.549306518743</v>
+        <v>587.6086597482636</v>
       </c>
       <c r="AB10" t="n">
-        <v>706.7655497260137</v>
+        <v>803.9920917320567</v>
       </c>
       <c r="AC10" t="n">
-        <v>639.3128376118414</v>
+        <v>727.2602149071363</v>
       </c>
       <c r="AD10" t="n">
-        <v>516549.306518743</v>
+        <v>587608.6597482635</v>
       </c>
       <c r="AE10" t="n">
-        <v>706765.5497260137</v>
+        <v>803992.0917320567</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.566626280377671e-06</v>
+        <v>2.695351074235337e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.26003086419753</v>
       </c>
       <c r="AH10" t="n">
-        <v>639312.8376118414</v>
+        <v>727260.2149071363</v>
       </c>
     </row>
     <row r="11">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>517.0720126294253</v>
+        <v>588.1313658589459</v>
       </c>
       <c r="AB11" t="n">
-        <v>707.4807392868155</v>
+        <v>804.7072812928584</v>
       </c>
       <c r="AC11" t="n">
-        <v>639.959770484735</v>
+        <v>727.9071477800301</v>
       </c>
       <c r="AD11" t="n">
-        <v>517072.0126294254</v>
+        <v>588131.3658589459</v>
       </c>
       <c r="AE11" t="n">
-        <v>707480.7392868155</v>
+        <v>804707.2812928584</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.568672257579938e-06</v>
+        <v>2.69887113956238e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>639959.770484735</v>
+        <v>727907.14778003</v>
       </c>
     </row>
   </sheetData>
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.3255580300271</v>
+        <v>415.5626350644555</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.1721043539579</v>
+        <v>568.5911306247466</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.7725210612495</v>
+        <v>514.3255911405839</v>
       </c>
       <c r="AD2" t="n">
-        <v>355325.5580300271</v>
+        <v>415562.6350644556</v>
       </c>
       <c r="AE2" t="n">
-        <v>486172.1043539579</v>
+        <v>568591.1306247466</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738911767077628e-06</v>
+        <v>3.48592751787467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.29783950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>439772.5210612495</v>
+        <v>514325.5911405839</v>
       </c>
     </row>
     <row r="3">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.8473491250576</v>
+        <v>409.084426159486</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.3083331317724</v>
+        <v>559.727359402561</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.7546957241282</v>
+        <v>506.3077658034627</v>
       </c>
       <c r="AD3" t="n">
-        <v>348847.3491250576</v>
+        <v>409084.426159486</v>
       </c>
       <c r="AE3" t="n">
-        <v>477308.3331317724</v>
+        <v>559727.359402561</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.763139388688818e-06</v>
+        <v>3.534495670938029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.10108024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>431754.6957241282</v>
+        <v>506307.7658034627</v>
       </c>
     </row>
   </sheetData>
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.1698797776738</v>
+        <v>998.1418050202312</v>
       </c>
       <c r="AB2" t="n">
-        <v>1231.652142204129</v>
+        <v>1365.701652537291</v>
       </c>
       <c r="AC2" t="n">
-        <v>1114.104990386805</v>
+        <v>1235.361003593439</v>
       </c>
       <c r="AD2" t="n">
-        <v>900169.8797776739</v>
+        <v>998141.8050202313</v>
       </c>
       <c r="AE2" t="n">
-        <v>1231652.142204129</v>
+        <v>1365701.65253729</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.12719405325231e-06</v>
+        <v>1.996344426605492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15895061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>1114104.990386805</v>
+        <v>1235361.003593439</v>
       </c>
     </row>
     <row r="3">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>629.0281605229191</v>
+        <v>707.3715822768464</v>
       </c>
       <c r="AB3" t="n">
-        <v>860.6640799913501</v>
+        <v>967.8570059029104</v>
       </c>
       <c r="AC3" t="n">
-        <v>778.523508146598</v>
+        <v>875.4860916553752</v>
       </c>
       <c r="AD3" t="n">
-        <v>629028.160522919</v>
+        <v>707371.5822768464</v>
       </c>
       <c r="AE3" t="n">
-        <v>860664.0799913502</v>
+        <v>967857.0059029104</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415975605654786e-06</v>
+        <v>2.507798014372176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.25077160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>778523.508146598</v>
+        <v>875486.0916553752</v>
       </c>
     </row>
     <row r="4">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>556.6480445069546</v>
+        <v>625.2625553711387</v>
       </c>
       <c r="AB4" t="n">
-        <v>761.6304120729527</v>
+        <v>855.5118128959097</v>
       </c>
       <c r="AC4" t="n">
-        <v>688.9414744997065</v>
+        <v>773.862966191494</v>
       </c>
       <c r="AD4" t="n">
-        <v>556648.0445069546</v>
+        <v>625262.5553711386</v>
       </c>
       <c r="AE4" t="n">
-        <v>761630.4120729527</v>
+        <v>855511.8128959097</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.519251815033071e-06</v>
+        <v>2.690707855316067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.21682098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>688941.4744997065</v>
+        <v>773862.966191494</v>
       </c>
     </row>
     <row r="5">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>508.4862866252642</v>
+        <v>577.1860488354688</v>
       </c>
       <c r="AB5" t="n">
-        <v>695.7333701924235</v>
+        <v>789.7314156680296</v>
       </c>
       <c r="AC5" t="n">
-        <v>629.3335538091758</v>
+        <v>714.3605577516754</v>
       </c>
       <c r="AD5" t="n">
-        <v>508486.2866252642</v>
+        <v>577186.0488354688</v>
       </c>
       <c r="AE5" t="n">
-        <v>695733.3701924236</v>
+        <v>789731.4156680296</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.578530679928248e-06</v>
+        <v>2.795695129874105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>629333.5538091757</v>
+        <v>714360.5577516754</v>
       </c>
     </row>
     <row r="6">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>482.7122011184921</v>
+        <v>551.2413711281047</v>
       </c>
       <c r="AB6" t="n">
-        <v>660.468129329656</v>
+        <v>754.2327630304151</v>
       </c>
       <c r="AC6" t="n">
-        <v>597.4339780392744</v>
+        <v>682.2498466991229</v>
       </c>
       <c r="AD6" t="n">
-        <v>482712.2011184921</v>
+        <v>551241.3711281046</v>
       </c>
       <c r="AE6" t="n">
-        <v>660468.129329656</v>
+        <v>754232.7630304151</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.60987738846583e-06</v>
+        <v>2.851212479970896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>597433.9780392743</v>
+        <v>682249.8466991229</v>
       </c>
     </row>
     <row r="7">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>467.1812105544129</v>
+        <v>535.7103805640254</v>
       </c>
       <c r="AB7" t="n">
-        <v>639.2179428609365</v>
+        <v>732.9825765616956</v>
       </c>
       <c r="AC7" t="n">
-        <v>578.2118795423054</v>
+        <v>663.027748202154</v>
       </c>
       <c r="AD7" t="n">
-        <v>467181.2105544129</v>
+        <v>535710.3805640254</v>
       </c>
       <c r="AE7" t="n">
-        <v>639217.9428609365</v>
+        <v>732982.5765616957</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.624487193694954e-06</v>
+        <v>2.877087530641008e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.29475308641975</v>
       </c>
       <c r="AH7" t="n">
-        <v>578211.8795423054</v>
+        <v>663027.7482021541</v>
       </c>
     </row>
     <row r="8">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>467.9869608970397</v>
+        <v>536.5161309066522</v>
       </c>
       <c r="AB8" t="n">
-        <v>640.3204060269148</v>
+        <v>734.085039727674</v>
       </c>
       <c r="AC8" t="n">
-        <v>579.2091251710397</v>
+        <v>664.0249938308883</v>
       </c>
       <c r="AD8" t="n">
-        <v>467986.9608970397</v>
+        <v>536516.1309066522</v>
       </c>
       <c r="AE8" t="n">
-        <v>640320.4060269148</v>
+        <v>734085.039727674</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.627118078161501e-06</v>
+        <v>2.881747022524131e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.2716049382716</v>
       </c>
       <c r="AH8" t="n">
-        <v>579209.1251710396</v>
+        <v>664024.9938308883</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1046.263001025819</v>
+        <v>1156.031176602738</v>
       </c>
       <c r="AB2" t="n">
-        <v>1431.543195869473</v>
+        <v>1581.732856323943</v>
       </c>
       <c r="AC2" t="n">
-        <v>1294.918722439184</v>
+        <v>1430.774492492392</v>
       </c>
       <c r="AD2" t="n">
-        <v>1046263.001025819</v>
+        <v>1156031.176602738</v>
       </c>
       <c r="AE2" t="n">
-        <v>1431543.195869473</v>
+        <v>1581732.856323943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.033565102654931e-06</v>
+        <v>1.802447288947784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.47067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>1294918.722439184</v>
+        <v>1430774.492492392</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>696.1559848602415</v>
+        <v>776.1735184108464</v>
       </c>
       <c r="AB3" t="n">
-        <v>952.5113307202743</v>
+        <v>1061.994850248649</v>
       </c>
       <c r="AC3" t="n">
-        <v>861.6049861743795</v>
+        <v>960.6395522600506</v>
       </c>
       <c r="AD3" t="n">
-        <v>696155.9848602414</v>
+        <v>776173.5184108465</v>
       </c>
       <c r="AE3" t="n">
-        <v>952511.3307202742</v>
+        <v>1061994.850248649</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341413387144299e-06</v>
+        <v>2.339307816029976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.77546296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>861604.9861743795</v>
+        <v>960639.5522600506</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>611.1320789293434</v>
+        <v>691.0642716253769</v>
       </c>
       <c r="AB4" t="n">
-        <v>836.1778716356216</v>
+        <v>945.5446240417984</v>
       </c>
       <c r="AC4" t="n">
-        <v>756.3742291497309</v>
+        <v>855.3031722034632</v>
       </c>
       <c r="AD4" t="n">
-        <v>611132.0789293434</v>
+        <v>691064.2716253769</v>
       </c>
       <c r="AE4" t="n">
-        <v>836177.8716356216</v>
+        <v>945544.6240417984</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.453901687783474e-06</v>
+        <v>2.535477589955787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.55246913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>756374.2291497309</v>
+        <v>855303.1722034632</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>562.3747593230898</v>
+        <v>642.2216111645519</v>
       </c>
       <c r="AB5" t="n">
-        <v>769.4659559292162</v>
+        <v>878.7159412131953</v>
       </c>
       <c r="AC5" t="n">
-        <v>696.0292050475829</v>
+        <v>794.8525250693765</v>
       </c>
       <c r="AD5" t="n">
-        <v>562374.7593230898</v>
+        <v>642221.6111645518</v>
       </c>
       <c r="AE5" t="n">
-        <v>769465.9559292162</v>
+        <v>878715.9412131952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.513628532930262e-06</v>
+        <v>2.639635992591188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.97762345679012</v>
       </c>
       <c r="AH5" t="n">
-        <v>696029.2050475829</v>
+        <v>794852.5250693765</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>535.0964419394275</v>
+        <v>605.1117837962069</v>
       </c>
       <c r="AB6" t="n">
-        <v>732.1425586504603</v>
+        <v>827.9406382377879</v>
       </c>
       <c r="AC6" t="n">
-        <v>662.2679004213945</v>
+        <v>748.9231457463566</v>
       </c>
       <c r="AD6" t="n">
-        <v>535096.4419394274</v>
+        <v>605111.7837962068</v>
       </c>
       <c r="AE6" t="n">
-        <v>732142.5586504603</v>
+        <v>827940.6382377879</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.5516365252964e-06</v>
+        <v>2.70591861245008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.63811728395062</v>
       </c>
       <c r="AH6" t="n">
-        <v>662267.9004213945</v>
+        <v>748923.1457463566</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>512.69440577569</v>
+        <v>582.5391554318774</v>
       </c>
       <c r="AB7" t="n">
-        <v>701.4911044631505</v>
+        <v>797.0557722756312</v>
       </c>
       <c r="AC7" t="n">
-        <v>634.5417780021353</v>
+        <v>720.9858880444465</v>
       </c>
       <c r="AD7" t="n">
-        <v>512694.40577569</v>
+        <v>582539.1554318774</v>
       </c>
       <c r="AE7" t="n">
-        <v>701491.1044631505</v>
+        <v>797055.7722756312</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.578017253042594e-06</v>
+        <v>2.751924298095285e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.41049382716049</v>
       </c>
       <c r="AH7" t="n">
-        <v>634541.7780021353</v>
+        <v>720985.8880444465</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>494.195579680332</v>
+        <v>564.0403293365192</v>
       </c>
       <c r="AB8" t="n">
-        <v>676.1801944888725</v>
+        <v>771.7448623013531</v>
       </c>
       <c r="AC8" t="n">
-        <v>611.6465057517171</v>
+        <v>698.0906157940284</v>
       </c>
       <c r="AD8" t="n">
-        <v>494195.579680332</v>
+        <v>564040.3293365192</v>
       </c>
       <c r="AE8" t="n">
-        <v>676180.1944888725</v>
+        <v>771744.8623013531</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.594416083803741e-06</v>
+        <v>2.780522427009871e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.2716049382716</v>
       </c>
       <c r="AH8" t="n">
-        <v>611646.5057517171</v>
+        <v>698090.6157940284</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>492.1570695268774</v>
+        <v>562.0018191830646</v>
       </c>
       <c r="AB9" t="n">
-        <v>673.3910149641952</v>
+        <v>768.9556827766758</v>
       </c>
       <c r="AC9" t="n">
-        <v>609.123521606237</v>
+        <v>695.5676316485481</v>
       </c>
       <c r="AD9" t="n">
-        <v>492157.0695268774</v>
+        <v>562001.8191830646</v>
       </c>
       <c r="AE9" t="n">
-        <v>673391.0149641952</v>
+        <v>768955.6827766758</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.596335679377789e-06</v>
+        <v>2.783870034073452e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.25617283950617</v>
       </c>
       <c r="AH9" t="n">
-        <v>609123.5216062369</v>
+        <v>695567.6316485481</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>494.2873258702422</v>
+        <v>564.1320755264296</v>
       </c>
       <c r="AB10" t="n">
-        <v>676.3057256734639</v>
+        <v>771.8703934859446</v>
       </c>
       <c r="AC10" t="n">
-        <v>611.7600564162354</v>
+        <v>698.2041664585464</v>
       </c>
       <c r="AD10" t="n">
-        <v>494287.3258702422</v>
+        <v>564132.0755264296</v>
       </c>
       <c r="AE10" t="n">
-        <v>676305.7256734639</v>
+        <v>771870.3934859446</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.596225988202129e-06</v>
+        <v>2.783678742241248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.25617283950617</v>
       </c>
       <c r="AH10" t="n">
-        <v>611760.0564162354</v>
+        <v>698204.1664585464</v>
       </c>
     </row>
   </sheetData>
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1394.108469727068</v>
+        <v>1517.986981412668</v>
       </c>
       <c r="AB2" t="n">
-        <v>1907.480712005544</v>
+        <v>2076.976756828008</v>
       </c>
       <c r="AC2" t="n">
-        <v>1725.433430017728</v>
+        <v>1878.753010211529</v>
       </c>
       <c r="AD2" t="n">
-        <v>1394108.469727068</v>
+        <v>1517986.981412668</v>
       </c>
       <c r="AE2" t="n">
-        <v>1907480.712005544</v>
+        <v>2076976.756828008</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.743277707852945e-07</v>
+        <v>1.4862992630565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.36033950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>1725433.430017728</v>
+        <v>1878753.010211529</v>
       </c>
     </row>
     <row r="3">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.8846891277882</v>
+        <v>941.8361761878608</v>
       </c>
       <c r="AB3" t="n">
-        <v>1161.481481814026</v>
+        <v>1288.661807139811</v>
       </c>
       <c r="AC3" t="n">
-        <v>1050.631319339192</v>
+        <v>1165.673732914593</v>
       </c>
       <c r="AD3" t="n">
-        <v>848884.6891277882</v>
+        <v>941836.1761878608</v>
       </c>
       <c r="AE3" t="n">
-        <v>1161481.481814026</v>
+        <v>1288661.807139811</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20847386482724e-06</v>
+        <v>2.054325476934717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.90200617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>1050631.319339192</v>
+        <v>1165673.732914593</v>
       </c>
     </row>
     <row r="4">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>733.9207597098452</v>
+        <v>816.4495701000479</v>
       </c>
       <c r="AB4" t="n">
-        <v>1004.182761733784</v>
+        <v>1117.10232102381</v>
       </c>
       <c r="AC4" t="n">
-        <v>908.3449683332684</v>
+        <v>1010.487643368252</v>
       </c>
       <c r="AD4" t="n">
-        <v>733920.7597098453</v>
+        <v>816449.570100048</v>
       </c>
       <c r="AE4" t="n">
-        <v>1004182.761733784</v>
+        <v>1117102.32102381</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336054993889517e-06</v>
+        <v>2.271204940725354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.28549382716049</v>
       </c>
       <c r="AH4" t="n">
-        <v>908344.9683332684</v>
+        <v>1010487.643368252</v>
       </c>
     </row>
     <row r="5">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>672.5916443061626</v>
+        <v>755.2057060423859</v>
       </c>
       <c r="AB5" t="n">
-        <v>920.2695603888488</v>
+        <v>1033.305764331525</v>
       </c>
       <c r="AC5" t="n">
-        <v>832.4403251517766</v>
+        <v>934.6885124374724</v>
       </c>
       <c r="AD5" t="n">
-        <v>672591.6443061626</v>
+        <v>755205.7060423859</v>
       </c>
       <c r="AE5" t="n">
-        <v>920269.5603888489</v>
+        <v>1033305.764331525</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405721701709416e-06</v>
+        <v>2.389633726762067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.52932098765432</v>
       </c>
       <c r="AH5" t="n">
-        <v>832440.3251517767</v>
+        <v>934688.5124374724</v>
       </c>
     </row>
     <row r="6">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>640.2051841950976</v>
+        <v>712.4819101160225</v>
       </c>
       <c r="AB6" t="n">
-        <v>875.9569768751082</v>
+        <v>974.8491819042238</v>
       </c>
       <c r="AC6" t="n">
-        <v>792.3568724154858</v>
+        <v>881.8109441927039</v>
       </c>
       <c r="AD6" t="n">
-        <v>640205.1841950975</v>
+        <v>712481.9101160225</v>
       </c>
       <c r="AE6" t="n">
-        <v>875956.9768751082</v>
+        <v>974849.1819042237</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.450507442450779e-06</v>
+        <v>2.465766517785669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.08179012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>792356.8724154858</v>
+        <v>881810.9441927039</v>
       </c>
     </row>
     <row r="7">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>606.5246615858687</v>
+        <v>678.8866388528143</v>
       </c>
       <c r="AB7" t="n">
-        <v>829.8737999613722</v>
+        <v>928.8826496431367</v>
       </c>
       <c r="AC7" t="n">
-        <v>750.6718092282516</v>
+        <v>840.2313932561818</v>
       </c>
       <c r="AD7" t="n">
-        <v>606524.6615858687</v>
+        <v>678886.6388528142</v>
       </c>
       <c r="AE7" t="n">
-        <v>829873.7999613723</v>
+        <v>928882.6496431367</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478670579654568e-06</v>
+        <v>2.513641984481361e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.81172839506173</v>
       </c>
       <c r="AH7" t="n">
-        <v>750671.8092282516</v>
+        <v>840231.3932561819</v>
       </c>
     </row>
     <row r="8">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>586.1940296398413</v>
+        <v>658.5560069067867</v>
       </c>
       <c r="AB8" t="n">
-        <v>802.0565324086376</v>
+        <v>901.0653820904023</v>
       </c>
       <c r="AC8" t="n">
-        <v>725.5093826489698</v>
+        <v>815.0689666769001</v>
       </c>
       <c r="AD8" t="n">
-        <v>586194.0296398413</v>
+        <v>658556.0069067867</v>
       </c>
       <c r="AE8" t="n">
-        <v>802056.5324086376</v>
+        <v>901065.3820904023</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.502386905720916e-06</v>
+        <v>2.553958166961944e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.59567901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>725509.3826489698</v>
+        <v>815068.9666769002</v>
       </c>
     </row>
     <row r="9">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>572.4873933886611</v>
+        <v>644.6787784550145</v>
       </c>
       <c r="AB9" t="n">
-        <v>783.3025079956587</v>
+        <v>882.0779459025763</v>
       </c>
       <c r="AC9" t="n">
-        <v>708.5452160045271</v>
+        <v>797.8936647498061</v>
       </c>
       <c r="AD9" t="n">
-        <v>572487.3933886611</v>
+        <v>644678.7784550145</v>
       </c>
       <c r="AE9" t="n">
-        <v>783302.5079956588</v>
+        <v>882077.9459025763</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.515992030272371e-06</v>
+        <v>2.577085977001029e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>708545.2160045271</v>
+        <v>797893.6647498062</v>
       </c>
     </row>
     <row r="10">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>557.0147033834259</v>
+        <v>629.2060884497791</v>
       </c>
       <c r="AB10" t="n">
-        <v>762.1320909235889</v>
+        <v>860.9075288305065</v>
       </c>
       <c r="AC10" t="n">
-        <v>689.3952738249486</v>
+        <v>778.7437225702276</v>
       </c>
       <c r="AD10" t="n">
-        <v>557014.7033834258</v>
+        <v>629206.0884497792</v>
       </c>
       <c r="AE10" t="n">
-        <v>762132.0909235888</v>
+        <v>860907.5288305065</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.529597154823825e-06</v>
+        <v>2.600213787040113e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.35262345679012</v>
       </c>
       <c r="AH10" t="n">
-        <v>689395.2738249486</v>
+        <v>778743.7225702277</v>
       </c>
     </row>
     <row r="11">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>544.7906718690876</v>
+        <v>616.9820569354409</v>
       </c>
       <c r="AB11" t="n">
-        <v>745.4066317194618</v>
+        <v>844.1820696263793</v>
       </c>
       <c r="AC11" t="n">
-        <v>674.2660689729338</v>
+        <v>763.6145177182129</v>
       </c>
       <c r="AD11" t="n">
-        <v>544790.6718690876</v>
+        <v>616982.056935441</v>
       </c>
       <c r="AE11" t="n">
-        <v>745406.6317194618</v>
+        <v>844182.0696263793</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.538173147731746e-06</v>
+        <v>2.614792406597825e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.27932098765432</v>
       </c>
       <c r="AH11" t="n">
-        <v>674266.0689729338</v>
+        <v>763614.5177182129</v>
       </c>
     </row>
     <row r="12">
@@ -13097,28 +13097,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>542.3894978064779</v>
+        <v>614.5808828728312</v>
       </c>
       <c r="AB12" t="n">
-        <v>742.1212394346759</v>
+        <v>840.8966773415934</v>
       </c>
       <c r="AC12" t="n">
-        <v>671.294229916731</v>
+        <v>760.6426786620101</v>
       </c>
       <c r="AD12" t="n">
-        <v>542389.4978064779</v>
+        <v>614580.8828728312</v>
       </c>
       <c r="AE12" t="n">
-        <v>742121.2394346759</v>
+        <v>840896.6773415934</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541508256084826e-06</v>
+        <v>2.620461869759156e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.24845679012346</v>
       </c>
       <c r="AH12" t="n">
-        <v>671294.229916731</v>
+        <v>760642.6786620101</v>
       </c>
     </row>
     <row r="13">
@@ -13203,28 +13203,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>541.7459600739721</v>
+        <v>613.9373451403255</v>
       </c>
       <c r="AB13" t="n">
-        <v>741.2407227181805</v>
+        <v>840.016160625098</v>
       </c>
       <c r="AC13" t="n">
-        <v>670.4977484798447</v>
+        <v>759.846197225124</v>
       </c>
       <c r="AD13" t="n">
-        <v>541745.9600739721</v>
+        <v>613937.3451403255</v>
       </c>
       <c r="AE13" t="n">
-        <v>741240.7227181805</v>
+        <v>840016.160625098</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.54129650317352e-06</v>
+        <v>2.620101903844151e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.25231481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>670497.7484798448</v>
+        <v>759846.197225124</v>
       </c>
     </row>
   </sheetData>
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.411961151397</v>
+        <v>855.3227430537936</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.060948138553</v>
+        <v>1170.29031122248</v>
       </c>
       <c r="AC2" t="n">
-        <v>939.8944295794082</v>
+        <v>1058.599446432174</v>
       </c>
       <c r="AD2" t="n">
-        <v>759411.961151397</v>
+        <v>855322.7430537936</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039060.948138553</v>
+        <v>1170290.31122248</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.229667030206582e-06</v>
+        <v>2.21738064379775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.97067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>939894.4295794083</v>
+        <v>1058599.446432174</v>
       </c>
     </row>
     <row r="3">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.6041030995578</v>
+        <v>630.3839331342182</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.4655571501353</v>
+        <v>862.5191078905959</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.1741074853121</v>
+        <v>780.2014947866877</v>
       </c>
       <c r="AD3" t="n">
-        <v>553604.1030995578</v>
+        <v>630383.9331342182</v>
       </c>
       <c r="AE3" t="n">
-        <v>757465.5571501353</v>
+        <v>862519.1078905959</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.496263836392211e-06</v>
+        <v>2.698117772803316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>685174.1074853122</v>
+        <v>780201.4947866877</v>
       </c>
     </row>
     <row r="4">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.7538361580314</v>
+        <v>565.4483253381201</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.7345609288802</v>
+        <v>773.6713445471431</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.9114730086783</v>
+        <v>699.833237278115</v>
       </c>
       <c r="AD4" t="n">
-        <v>488753.8361580314</v>
+        <v>565448.3253381201</v>
       </c>
       <c r="AE4" t="n">
-        <v>668734.5609288802</v>
+        <v>773671.3445471431</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.593567375320113e-06</v>
+        <v>2.873579079394178e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>604911.4730086783</v>
+        <v>699833.237278115</v>
       </c>
     </row>
     <row r="5">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>455.4256325821601</v>
+        <v>522.5120649096458</v>
       </c>
       <c r="AB5" t="n">
-        <v>623.1334424598025</v>
+        <v>714.9240588147815</v>
       </c>
       <c r="AC5" t="n">
-        <v>563.6624612847174</v>
+        <v>646.6927100437165</v>
       </c>
       <c r="AD5" t="n">
-        <v>455425.6325821601</v>
+        <v>522512.0649096458</v>
       </c>
       <c r="AE5" t="n">
-        <v>623133.4424598025</v>
+        <v>714924.0588147815</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642992304157535e-06</v>
+        <v>2.962703922000365e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.44907407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>563662.4612847174</v>
+        <v>646692.7100437165</v>
       </c>
     </row>
     <row r="6">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>443.6339446964394</v>
+        <v>510.7203770239252</v>
       </c>
       <c r="AB6" t="n">
-        <v>606.9995348820047</v>
+        <v>698.7901512369837</v>
       </c>
       <c r="AC6" t="n">
-        <v>549.0683512020632</v>
+        <v>632.0985999610623</v>
       </c>
       <c r="AD6" t="n">
-        <v>443633.9446964394</v>
+        <v>510720.3770239252</v>
       </c>
       <c r="AE6" t="n">
-        <v>606999.5348820047</v>
+        <v>698790.1512369837</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.659715455050382e-06</v>
+        <v>2.992859720425634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.31404320987654</v>
       </c>
       <c r="AH6" t="n">
-        <v>549068.3512020633</v>
+        <v>632098.5999610623</v>
       </c>
     </row>
     <row r="7">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>445.2246446391378</v>
+        <v>512.3110769666235</v>
       </c>
       <c r="AB7" t="n">
-        <v>609.1760007203333</v>
+        <v>700.9666170753122</v>
       </c>
       <c r="AC7" t="n">
-        <v>551.0370981954708</v>
+        <v>634.0673469544697</v>
       </c>
       <c r="AD7" t="n">
-        <v>445224.6446391378</v>
+        <v>512311.0769666235</v>
       </c>
       <c r="AE7" t="n">
-        <v>609176.0007203333</v>
+        <v>700966.6170753122</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.65851276269165e-06</v>
+        <v>2.990690981497789e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.32175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>551037.0981954708</v>
+        <v>634067.3469544697</v>
       </c>
     </row>
   </sheetData>
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.5927059401994</v>
+        <v>659.5212185899888</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.2337747942585</v>
+        <v>902.3860272974936</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.7651478665593</v>
+        <v>816.2635713589636</v>
       </c>
       <c r="AD2" t="n">
-        <v>585592.7059401994</v>
+        <v>659521.2185899889</v>
       </c>
       <c r="AE2" t="n">
-        <v>801233.7747942584</v>
+        <v>902386.0272974935</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410063837734065e-06</v>
+        <v>2.630728404546073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3233024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>724765.1478665593</v>
+        <v>816263.5713589636</v>
       </c>
     </row>
     <row r="3">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.4550509157439</v>
+        <v>515.1318430660571</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.3324733372251</v>
+        <v>704.8261136959746</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.5105671099789</v>
+        <v>637.5584986344937</v>
       </c>
       <c r="AD3" t="n">
-        <v>450455.0509157439</v>
+        <v>515131.8430660571</v>
       </c>
       <c r="AE3" t="n">
-        <v>616332.4733372252</v>
+        <v>704826.1136959747</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.640103021957392e-06</v>
+        <v>3.059907991952134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.03163580246913</v>
       </c>
       <c r="AH3" t="n">
-        <v>557510.5671099789</v>
+        <v>637558.4986344937</v>
       </c>
     </row>
     <row r="4">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.7388570813899</v>
+        <v>469.3303083771314</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.7815600769326</v>
+        <v>642.1584333134845</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.9294252204904</v>
+        <v>580.8717337130663</v>
       </c>
       <c r="AD4" t="n">
-        <v>404738.8570813899</v>
+        <v>469330.3083771314</v>
       </c>
       <c r="AE4" t="n">
-        <v>553781.5600769325</v>
+        <v>642158.4333134844</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.707933559421584e-06</v>
+        <v>3.186458093321608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.47608024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>500929.4252204904</v>
+        <v>580871.7337130663</v>
       </c>
     </row>
     <row r="5">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.4950114653541</v>
+        <v>469.0864627610956</v>
       </c>
       <c r="AB5" t="n">
-        <v>553.4479197473631</v>
+        <v>641.8247929839149</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.627627055708</v>
+        <v>580.5699355482839</v>
       </c>
       <c r="AD5" t="n">
-        <v>404495.0114653541</v>
+        <v>469086.4627610956</v>
       </c>
       <c r="AE5" t="n">
-        <v>553447.9197473631</v>
+        <v>641824.792983915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.711751637168029e-06</v>
+        <v>3.19358140597565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.44521604938272</v>
       </c>
       <c r="AH5" t="n">
-        <v>500627.627055708</v>
+        <v>580569.9355482839</v>
       </c>
     </row>
   </sheetData>
@@ -26595,28 +26595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.0901657373306</v>
+        <v>543.6541547086799</v>
       </c>
       <c r="AB2" t="n">
-        <v>645.9345919100225</v>
+        <v>743.8515988009935</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.2875010330227</v>
+        <v>672.8594462137017</v>
       </c>
       <c r="AD2" t="n">
-        <v>472090.1657373306</v>
+        <v>543654.1547086799</v>
       </c>
       <c r="AE2" t="n">
-        <v>645934.5919100225</v>
+        <v>743851.5988009935</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.556584492792007e-06</v>
+        <v>2.993369703407799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29706790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>584287.5010330228</v>
+        <v>672859.4462137017</v>
       </c>
     </row>
     <row r="3">
@@ -26701,28 +26701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.9533062769013</v>
+        <v>438.7210648023503</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.3958995373571</v>
+        <v>600.2775158699477</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.3026768446903</v>
+        <v>542.9878722501041</v>
       </c>
       <c r="AD3" t="n">
-        <v>375953.3062769013</v>
+        <v>438721.0648023503</v>
       </c>
       <c r="AE3" t="n">
-        <v>514395.899537357</v>
+        <v>600277.5158699477</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.738575836773438e-06</v>
+        <v>3.343345806779706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69598765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>465302.6768446903</v>
+        <v>542987.8722501041</v>
       </c>
     </row>
     <row r="4">
@@ -26807,28 +26807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.1936042187086</v>
+        <v>437.9613627441576</v>
       </c>
       <c r="AB4" t="n">
-        <v>513.3564416656484</v>
+        <v>599.2380579982389</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.3624233733692</v>
+        <v>542.0476187787829</v>
       </c>
       <c r="AD4" t="n">
-        <v>375193.6042187086</v>
+        <v>437961.3627441576</v>
       </c>
       <c r="AE4" t="n">
-        <v>513356.4416656484</v>
+        <v>599238.0579982389</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.74431513653277e-06</v>
+        <v>3.354382693050844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.64969135802469</v>
       </c>
       <c r="AH4" t="n">
-        <v>464362.4233733692</v>
+        <v>542047.6187787829</v>
       </c>
     </row>
   </sheetData>
@@ -27104,28 +27104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.2551721940175</v>
+        <v>393.3863653402669</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.3967199582204</v>
+        <v>538.2485800401398</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.7932435271385</v>
+        <v>486.8788909977349</v>
       </c>
       <c r="AD2" t="n">
-        <v>326255.1721940174</v>
+        <v>393386.365340267</v>
       </c>
       <c r="AE2" t="n">
-        <v>446396.7199582204</v>
+        <v>538248.5800401398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75196251386387e-06</v>
+        <v>3.613596692148583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.58719135802469</v>
       </c>
       <c r="AH2" t="n">
-        <v>403793.2435271385</v>
+        <v>486878.8909977349</v>
       </c>
     </row>
   </sheetData>
@@ -27401,28 +27401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.6004068966647</v>
+        <v>1063.702666598539</v>
       </c>
       <c r="AB2" t="n">
-        <v>1319.808831882576</v>
+        <v>1455.404915689812</v>
       </c>
       <c r="AC2" t="n">
-        <v>1193.848129331032</v>
+        <v>1316.503113210004</v>
       </c>
       <c r="AD2" t="n">
-        <v>964600.4068966648</v>
+        <v>1063702.666598539</v>
       </c>
       <c r="AE2" t="n">
-        <v>1319808.831882576</v>
+        <v>1455404.915689812</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.080497897486717e-06</v>
+        <v>1.898392182645427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1193848.129331032</v>
+        <v>1316503.113210004</v>
       </c>
     </row>
     <row r="3">
@@ -27507,28 +27507,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.9162918002739</v>
+        <v>740.0275073611808</v>
       </c>
       <c r="AB3" t="n">
-        <v>904.2948280100919</v>
+        <v>1012.538283281033</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.9901988105703</v>
+        <v>915.9030506310968</v>
       </c>
       <c r="AD3" t="n">
-        <v>660916.2918002739</v>
+        <v>740027.5073611808</v>
       </c>
       <c r="AE3" t="n">
-        <v>904294.8280100919</v>
+        <v>1012538.283281033</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.379288303466587e-06</v>
+        <v>2.423355139335135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.49382716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>817990.1988105703</v>
+        <v>915903.0506310968</v>
       </c>
     </row>
     <row r="4">
@@ -27613,28 +27613,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.1905052381447</v>
+        <v>652.4768356834359</v>
       </c>
       <c r="AB4" t="n">
-        <v>797.9469778160918</v>
+        <v>892.7475918285074</v>
       </c>
       <c r="AC4" t="n">
-        <v>721.7920381789403</v>
+        <v>807.5450146435085</v>
       </c>
       <c r="AD4" t="n">
-        <v>583190.5052381448</v>
+        <v>652476.8356834359</v>
       </c>
       <c r="AE4" t="n">
-        <v>797946.9778160919</v>
+        <v>892747.5918285075</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.487471036666195e-06</v>
+        <v>2.61342793399865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.36728395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>721792.0381789403</v>
+        <v>807545.0146435085</v>
       </c>
     </row>
     <row r="5">
@@ -27719,28 +27719,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>536.1680616983289</v>
+        <v>605.5396434896404</v>
       </c>
       <c r="AB5" t="n">
-        <v>733.6087960811163</v>
+        <v>828.5260547461812</v>
       </c>
       <c r="AC5" t="n">
-        <v>663.5942022095458</v>
+        <v>749.4526909248261</v>
       </c>
       <c r="AD5" t="n">
-        <v>536168.0616983288</v>
+        <v>605539.6434896404</v>
       </c>
       <c r="AE5" t="n">
-        <v>733608.7960811163</v>
+        <v>828526.0547461812</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.54458132746435e-06</v>
+        <v>2.713768462057065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.83487654320988</v>
       </c>
       <c r="AH5" t="n">
-        <v>663594.2022095458</v>
+        <v>749452.6909248261</v>
       </c>
     </row>
     <row r="6">
@@ -27825,28 +27825,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.7576668633459</v>
+        <v>578.1292486546577</v>
       </c>
       <c r="AB6" t="n">
-        <v>696.1046846066181</v>
+        <v>791.0219432716831</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.6694304968225</v>
+        <v>715.5279192121029</v>
       </c>
       <c r="AD6" t="n">
-        <v>508757.6668633459</v>
+        <v>578129.2486546576</v>
       </c>
       <c r="AE6" t="n">
-        <v>696104.6846066181</v>
+        <v>791021.9432716831</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.581528528203796e-06</v>
+        <v>2.778683236271383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.51466049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>629669.4304968226</v>
+        <v>715527.9192121029</v>
       </c>
     </row>
     <row r="7">
@@ -27931,28 +27931,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>486.4836667290209</v>
+        <v>555.6846563197405</v>
       </c>
       <c r="AB7" t="n">
-        <v>665.6284149633012</v>
+        <v>760.3122618535191</v>
       </c>
       <c r="AC7" t="n">
-        <v>602.1017732545508</v>
+        <v>687.7491266871801</v>
       </c>
       <c r="AD7" t="n">
-        <v>486483.6667290209</v>
+        <v>555684.6563197405</v>
       </c>
       <c r="AE7" t="n">
-        <v>665628.4149633013</v>
+        <v>760312.2618535191</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.603574983817439e-06</v>
+        <v>2.817417989100916e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.32561728395062</v>
       </c>
       <c r="AH7" t="n">
-        <v>602101.7732545509</v>
+        <v>687749.1266871801</v>
       </c>
     </row>
     <row r="8">
@@ -28037,28 +28037,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>482.0105113670162</v>
+        <v>551.2115009577358</v>
       </c>
       <c r="AB8" t="n">
-        <v>659.5080464553196</v>
+        <v>754.1918933455376</v>
       </c>
       <c r="AC8" t="n">
-        <v>596.5655241269799</v>
+        <v>682.2128775596092</v>
       </c>
       <c r="AD8" t="n">
-        <v>482010.5113670162</v>
+        <v>551211.5009577358</v>
       </c>
       <c r="AE8" t="n">
-        <v>659508.0464553196</v>
+        <v>754191.8933455376</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.610554514991607e-06</v>
+        <v>2.829680750046949e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.26774691358025</v>
       </c>
       <c r="AH8" t="n">
-        <v>596565.5241269799</v>
+        <v>682212.8775596091</v>
       </c>
     </row>
     <row r="9">
@@ -28143,28 +28143,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>483.0441181154678</v>
+        <v>552.2451077061872</v>
       </c>
       <c r="AB9" t="n">
-        <v>660.9222728080626</v>
+        <v>755.6061196982805</v>
       </c>
       <c r="AC9" t="n">
-        <v>597.8447787014962</v>
+        <v>683.4921321341254</v>
       </c>
       <c r="AD9" t="n">
-        <v>483044.1181154678</v>
+        <v>552245.1077061873</v>
       </c>
       <c r="AE9" t="n">
-        <v>660922.2728080626</v>
+        <v>755606.1196982805</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.609668225318697e-06</v>
+        <v>2.828123574053802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.27546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>597844.7787014962</v>
+        <v>683492.1321341255</v>
       </c>
     </row>
   </sheetData>
@@ -28440,28 +28440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.153052138918</v>
+        <v>1419.162592553333</v>
       </c>
       <c r="AB2" t="n">
-        <v>1773.453788173408</v>
+        <v>1941.76086816633</v>
       </c>
       <c r="AC2" t="n">
-        <v>1604.197847688162</v>
+        <v>1756.44193618703</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296153.052138918</v>
+        <v>1419162.592553333</v>
       </c>
       <c r="AE2" t="n">
-        <v>1773453.788173408</v>
+        <v>1941760.86816633</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.119192891891546e-07</v>
+        <v>1.559280358043345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.58487654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>1604197.847688162</v>
+        <v>1756441.93618703</v>
       </c>
     </row>
     <row r="3">
@@ -28546,28 +28546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.2522354836383</v>
+        <v>904.4880555808066</v>
       </c>
       <c r="AB3" t="n">
-        <v>1111.359342628304</v>
+        <v>1237.560460842446</v>
       </c>
       <c r="AC3" t="n">
-        <v>1005.292766770492</v>
+        <v>1119.449427386658</v>
       </c>
       <c r="AD3" t="n">
-        <v>812252.2354836382</v>
+        <v>904488.0555808067</v>
       </c>
       <c r="AE3" t="n">
-        <v>1111359.342628304</v>
+        <v>1237560.460842446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.239770393977248e-06</v>
+        <v>2.119869210718493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.61265432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>1005292.766770492</v>
+        <v>1119449.427386658</v>
       </c>
     </row>
     <row r="4">
@@ -28652,28 +28652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>703.0417942808201</v>
+        <v>774.8472311962801</v>
       </c>
       <c r="AB4" t="n">
-        <v>961.932798949982</v>
+        <v>1060.180165570017</v>
       </c>
       <c r="AC4" t="n">
-        <v>870.1272826993577</v>
+        <v>958.9980585402215</v>
       </c>
       <c r="AD4" t="n">
-        <v>703041.7942808201</v>
+        <v>774847.2311962801</v>
       </c>
       <c r="AE4" t="n">
-        <v>961932.798949982</v>
+        <v>1060180.165570017</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.367131633968194e-06</v>
+        <v>2.337642737661329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.06172839506173</v>
       </c>
       <c r="AH4" t="n">
-        <v>870127.2826993577</v>
+        <v>958998.0585402214</v>
       </c>
     </row>
     <row r="5">
@@ -28758,28 +28758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>647.4511242182537</v>
+        <v>719.1712202791419</v>
       </c>
       <c r="AB5" t="n">
-        <v>885.8711916831033</v>
+        <v>984.0017911809401</v>
       </c>
       <c r="AC5" t="n">
-        <v>801.3248884768936</v>
+        <v>890.0900412858183</v>
       </c>
       <c r="AD5" t="n">
-        <v>647451.1242182537</v>
+        <v>719171.2202791419</v>
       </c>
       <c r="AE5" t="n">
-        <v>885871.1916831033</v>
+        <v>984001.7911809401</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432200096478238e-06</v>
+        <v>2.448902557168168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.37885802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>801324.8884768937</v>
+        <v>890090.0412858183</v>
       </c>
     </row>
     <row r="6">
@@ -28864,28 +28864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>607.2409542378767</v>
+        <v>689.133526708058</v>
       </c>
       <c r="AB6" t="n">
-        <v>830.853863168451</v>
+        <v>942.9028936674683</v>
       </c>
       <c r="AC6" t="n">
-        <v>751.558336578374</v>
+        <v>852.9135648683673</v>
       </c>
       <c r="AD6" t="n">
-        <v>607240.9542378767</v>
+        <v>689133.526708058</v>
       </c>
       <c r="AE6" t="n">
-        <v>830853.863168451</v>
+        <v>942902.8936674683</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.473781993357092e-06</v>
+        <v>2.520002966844811e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.97376543209877</v>
       </c>
       <c r="AH6" t="n">
-        <v>751558.336578374</v>
+        <v>852913.5648683673</v>
       </c>
     </row>
     <row r="7">
@@ -28970,28 +28970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>583.0659558183294</v>
+        <v>654.8713032252383</v>
       </c>
       <c r="AB7" t="n">
-        <v>797.7765638051678</v>
+        <v>896.0238079556539</v>
       </c>
       <c r="AC7" t="n">
-        <v>721.6378882420414</v>
+        <v>810.5085533016783</v>
       </c>
       <c r="AD7" t="n">
-        <v>583065.9558183294</v>
+        <v>654871.3032252383</v>
       </c>
       <c r="AE7" t="n">
-        <v>797776.5638051678</v>
+        <v>896023.8079556539</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.503353714629089e-06</v>
+        <v>2.570567314676467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.69984567901235</v>
       </c>
       <c r="AH7" t="n">
-        <v>721637.8882420415</v>
+        <v>810508.5533016783</v>
       </c>
     </row>
     <row r="8">
@@ -29076,28 +29076,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>566.7515431838112</v>
+        <v>638.5568905907201</v>
       </c>
       <c r="AB8" t="n">
-        <v>775.4544646975313</v>
+        <v>873.7017088480175</v>
       </c>
       <c r="AC8" t="n">
-        <v>701.4461789439749</v>
+        <v>790.3168440036122</v>
       </c>
       <c r="AD8" t="n">
-        <v>566751.5431838112</v>
+        <v>638556.8905907201</v>
       </c>
       <c r="AE8" t="n">
-        <v>775454.4646975313</v>
+        <v>873701.7088480175</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.521449045876754e-06</v>
+        <v>2.601508314522913e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.53395061728395</v>
       </c>
       <c r="AH8" t="n">
-        <v>701446.1789439749</v>
+        <v>790316.8440036122</v>
       </c>
     </row>
     <row r="9">
@@ -29182,28 +29182,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>547.7543170900659</v>
+        <v>619.3890722963827</v>
       </c>
       <c r="AB9" t="n">
-        <v>749.4616218576037</v>
+        <v>847.4754542332431</v>
       </c>
       <c r="AC9" t="n">
-        <v>677.934056543506</v>
+        <v>766.593586320492</v>
       </c>
       <c r="AD9" t="n">
-        <v>547754.3170900659</v>
+        <v>619389.0722963826</v>
       </c>
       <c r="AE9" t="n">
-        <v>749461.6218576038</v>
+        <v>847475.4542332431</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538903834425388e-06</v>
+        <v>2.631354057737627e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.38348765432099</v>
       </c>
       <c r="AH9" t="n">
-        <v>677934.056543506</v>
+        <v>766593.586320492</v>
       </c>
     </row>
     <row r="10">
@@ -29288,28 +29288,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>532.9540456255152</v>
+        <v>604.5888008318319</v>
       </c>
       <c r="AB10" t="n">
-        <v>729.2112374979107</v>
+        <v>827.22506987355</v>
       </c>
       <c r="AC10" t="n">
-        <v>659.6163404455092</v>
+        <v>748.2758702224951</v>
       </c>
       <c r="AD10" t="n">
-        <v>532954.0456255152</v>
+        <v>604588.8008318319</v>
       </c>
       <c r="AE10" t="n">
-        <v>729211.2374979107</v>
+        <v>827225.06987355</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550647117240982e-06</v>
+        <v>2.651433762652725e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.27932098765432</v>
       </c>
       <c r="AH10" t="n">
-        <v>659616.3404455092</v>
+        <v>748275.8702224951</v>
       </c>
     </row>
     <row r="11">
@@ -29394,28 +29394,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>527.7427117913569</v>
+        <v>599.3774669976738</v>
       </c>
       <c r="AB11" t="n">
-        <v>722.0808606381928</v>
+        <v>820.0946930138319</v>
       </c>
       <c r="AC11" t="n">
-        <v>653.1664767457358</v>
+        <v>741.8260065227219</v>
       </c>
       <c r="AD11" t="n">
-        <v>527742.7117913569</v>
+        <v>599377.4669976737</v>
       </c>
       <c r="AE11" t="n">
-        <v>722080.8606381929</v>
+        <v>820094.693013832</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55454375199343e-06</v>
+        <v>2.658096573829099e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.24845679012346</v>
       </c>
       <c r="AH11" t="n">
-        <v>653166.4767457359</v>
+        <v>741826.0065227218</v>
       </c>
     </row>
     <row r="12">
@@ -29500,28 +29500,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>529.0511714282746</v>
+        <v>600.6859266345913</v>
       </c>
       <c r="AB12" t="n">
-        <v>723.8711528385888</v>
+        <v>821.8849852142278</v>
       </c>
       <c r="AC12" t="n">
-        <v>654.7859059712169</v>
+        <v>743.4454357482028</v>
       </c>
       <c r="AD12" t="n">
-        <v>529051.1714282746</v>
+        <v>600685.9266345913</v>
       </c>
       <c r="AE12" t="n">
-        <v>723871.1528385888</v>
+        <v>821884.9852142278</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.554970780459451e-06</v>
+        <v>2.658826744916921e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.2445987654321</v>
       </c>
       <c r="AH12" t="n">
-        <v>654785.905971217</v>
+        <v>743445.4357482028</v>
       </c>
     </row>
   </sheetData>
@@ -29797,28 +29797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.1282712025273</v>
+        <v>374.2316989365054</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.9629384361184</v>
+        <v>512.0403204222719</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.595949223987</v>
+        <v>463.1719108942727</v>
       </c>
       <c r="AD2" t="n">
-        <v>309128.2712025273</v>
+        <v>374231.6989365054</v>
       </c>
       <c r="AE2" t="n">
-        <v>422962.9384361184</v>
+        <v>512040.3204222718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685626560859524e-06</v>
+        <v>3.613074103437407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.6983024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>382595.9492239869</v>
+        <v>463171.9108942727</v>
       </c>
     </row>
   </sheetData>
@@ -30094,28 +30094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.5095100451751</v>
+        <v>723.828364966318</v>
       </c>
       <c r="AB2" t="n">
-        <v>875.005124812207</v>
+        <v>990.3739020006575</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.4958637775351</v>
+        <v>895.8540067922156</v>
       </c>
       <c r="AD2" t="n">
-        <v>639509.5100451751</v>
+        <v>723828.364966318</v>
       </c>
       <c r="AE2" t="n">
-        <v>875005.124812207</v>
+        <v>990373.9020006575</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344714609373227e-06</v>
+        <v>2.477545946738937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.86728395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>791495.863777535</v>
+        <v>895854.0067922156</v>
       </c>
     </row>
     <row r="3">
@@ -30200,28 +30200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.8120793700693</v>
+        <v>551.3745358496045</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.7095195104403</v>
+        <v>754.414964877184</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.2705758940331</v>
+        <v>682.4146594573581</v>
       </c>
       <c r="AD3" t="n">
-        <v>485812.0793700693</v>
+        <v>551374.5358496045</v>
       </c>
       <c r="AE3" t="n">
-        <v>664709.5195104403</v>
+        <v>754414.964877184</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.588272912539848e-06</v>
+        <v>2.926285688687849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27854938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>601270.5758940331</v>
+        <v>682414.6594573581</v>
       </c>
     </row>
     <row r="4">
@@ -30306,28 +30306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.4618722959498</v>
+        <v>493.1095801215055</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.872191962174</v>
+        <v>674.6942819815671</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.0528108345803</v>
+        <v>610.3024066486176</v>
       </c>
       <c r="AD4" t="n">
-        <v>427461.8722959498</v>
+        <v>493109.5801215055</v>
       </c>
       <c r="AE4" t="n">
-        <v>584872.191962174</v>
+        <v>674694.281981567</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67604325930011e-06</v>
+        <v>3.087996631176317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.53395061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>529052.8108345803</v>
+        <v>610302.4066486177</v>
       </c>
     </row>
     <row r="5">
@@ -30412,28 +30412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.8885662597294</v>
+        <v>482.365681884693</v>
       </c>
       <c r="AB5" t="n">
-        <v>570.4053281820762</v>
+        <v>659.9940064266221</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.9666442292843</v>
+        <v>597.0051047606704</v>
       </c>
       <c r="AD5" t="n">
-        <v>416888.5662597294</v>
+        <v>482365.681884693</v>
       </c>
       <c r="AE5" t="n">
-        <v>570405.3281820762</v>
+        <v>659994.0064266222</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.692856601010381e-06</v>
+        <v>3.118974078967143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.39891975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>515966.6442292843</v>
+        <v>597005.1047606705</v>
       </c>
     </row>
   </sheetData>
@@ -30709,28 +30709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.1812503104106</v>
+        <v>926.2335518648629</v>
       </c>
       <c r="AB2" t="n">
-        <v>1134.522367569718</v>
+        <v>1267.313608201881</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.245145121007</v>
+        <v>1146.362976120913</v>
       </c>
       <c r="AD2" t="n">
-        <v>829181.2503104106</v>
+        <v>926233.5518648629</v>
       </c>
       <c r="AE2" t="n">
-        <v>1134522.367569719</v>
+        <v>1267313.608201881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176321013502069e-06</v>
+        <v>2.101411644736477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.56481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026245.145121007</v>
+        <v>1146362.976120913</v>
       </c>
     </row>
     <row r="3">
@@ -30815,28 +30815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>595.8253170393722</v>
+        <v>663.8217562342398</v>
       </c>
       <c r="AB3" t="n">
-        <v>815.2344847310878</v>
+        <v>908.2702126286883</v>
       </c>
       <c r="AC3" t="n">
-        <v>737.4296496971375</v>
+        <v>821.5861783006552</v>
       </c>
       <c r="AD3" t="n">
-        <v>595825.3170393722</v>
+        <v>663821.7562342398</v>
       </c>
       <c r="AE3" t="n">
-        <v>815234.4847310878</v>
+        <v>908270.2126286883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.455586176405365e-06</v>
+        <v>2.600298477971803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.00385802469136</v>
       </c>
       <c r="AH3" t="n">
-        <v>737429.6496971375</v>
+        <v>821586.1783006552</v>
       </c>
     </row>
     <row r="4">
@@ -30921,28 +30921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>527.0989543619282</v>
+        <v>595.0100527022245</v>
       </c>
       <c r="AB4" t="n">
-        <v>721.2000433226751</v>
+        <v>814.1190040980781</v>
       </c>
       <c r="AC4" t="n">
-        <v>652.3697233985764</v>
+        <v>736.4206289701553</v>
       </c>
       <c r="AD4" t="n">
-        <v>527098.9543619283</v>
+        <v>595010.0527022245</v>
       </c>
       <c r="AE4" t="n">
-        <v>721200.0433226752</v>
+        <v>814119.0040980781</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.555768450085713e-06</v>
+        <v>2.779266798771666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.0354938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>652369.7233985764</v>
+        <v>736420.6289701554</v>
       </c>
     </row>
     <row r="5">
@@ -31027,28 +31027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>483.0211889367667</v>
+        <v>551.0175386230833</v>
       </c>
       <c r="AB5" t="n">
-        <v>660.8909000941997</v>
+        <v>753.9265055222518</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.8164001554123</v>
+        <v>681.9728179777035</v>
       </c>
       <c r="AD5" t="n">
-        <v>483021.1889367667</v>
+        <v>551017.5386230833</v>
       </c>
       <c r="AE5" t="n">
-        <v>660890.9000941997</v>
+        <v>753926.5055222518</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609255596203186e-06</v>
+        <v>2.874817681910577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.56867283950617</v>
       </c>
       <c r="AH5" t="n">
-        <v>597816.4001554124</v>
+        <v>681972.8179777035</v>
       </c>
     </row>
     <row r="6">
@@ -31133,28 +31133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>458.4784393930796</v>
+        <v>526.304196878804</v>
       </c>
       <c r="AB6" t="n">
-        <v>627.3104274188337</v>
+        <v>720.1126210720388</v>
       </c>
       <c r="AC6" t="n">
-        <v>567.440800661694</v>
+        <v>651.3860832013341</v>
       </c>
       <c r="AD6" t="n">
-        <v>458478.4393930796</v>
+        <v>526304.196878804</v>
       </c>
       <c r="AE6" t="n">
-        <v>627310.4274188337</v>
+        <v>720112.6210720388</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639083877688804e-06</v>
+        <v>2.928103729967937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.32175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>567440.800661694</v>
+        <v>651386.0832013341</v>
       </c>
     </row>
     <row r="7">
@@ -31239,28 +31239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.3501134236056</v>
+        <v>525.1758709093301</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.7666020491707</v>
+        <v>718.5687957023761</v>
       </c>
       <c r="AC7" t="n">
-        <v>566.0443158185392</v>
+        <v>649.9895983581794</v>
       </c>
       <c r="AD7" t="n">
-        <v>457350.1134236056</v>
+        <v>525175.8709093301</v>
       </c>
       <c r="AE7" t="n">
-        <v>625766.6020491708</v>
+        <v>718568.7957023761</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.642819487893834e-06</v>
+        <v>2.934777124980813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.2908950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>566044.3158185392</v>
+        <v>649989.5983581793</v>
       </c>
     </row>
   </sheetData>
